--- a/DateBase/orders/Nhat 48_2026-1-3.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-3.xlsx
@@ -1445,6 +1445,9 @@
       <c r="G2" t="str">
         <v>018127453182152519241018191717101528705550158103556102552526205403010182912517481920201822252560103271217323446258575107302015153030105914162510851510520555510515101031555251018522010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
